--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pros1-Axl.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pros1-Axl.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.959728</v>
+        <v>22.45812766666667</v>
       </c>
       <c r="H2">
-        <v>71.879184</v>
+        <v>67.37438299999999</v>
       </c>
       <c r="I2">
-        <v>0.1471048789571275</v>
+        <v>0.1517873496957344</v>
       </c>
       <c r="J2">
-        <v>0.1548696879699961</v>
+        <v>0.1542780378440176</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.480095666666666</v>
+        <v>3.029459000000001</v>
       </c>
       <c r="N2">
-        <v>10.440287</v>
+        <v>9.088377000000001</v>
       </c>
       <c r="O2">
-        <v>0.01473490062525521</v>
+        <v>0.009650183621689718</v>
       </c>
       <c r="P2">
-        <v>0.01577541664427218</v>
+        <v>0.0101382356457613</v>
       </c>
       <c r="Q2">
-        <v>83.38214558731197</v>
+        <v>68.03597698293234</v>
       </c>
       <c r="R2">
-        <v>750.4393102858078</v>
+        <v>612.323792846391</v>
       </c>
       <c r="S2">
-        <v>0.00216757577292347</v>
+        <v>0.001464775796013466</v>
       </c>
       <c r="T2">
-        <v>0.002443133853295116</v>
+        <v>0.00156410710262833</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.959728</v>
+        <v>22.45812766666667</v>
       </c>
       <c r="H3">
-        <v>71.879184</v>
+        <v>67.37438299999999</v>
       </c>
       <c r="I3">
-        <v>0.1471048789571275</v>
+        <v>0.1517873496957344</v>
       </c>
       <c r="J3">
-        <v>0.1548696879699961</v>
+        <v>0.1542780378440176</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>226.576797</v>
       </c>
       <c r="O3">
-        <v>0.3197791964707123</v>
+        <v>0.2405828560439687</v>
       </c>
       <c r="P3">
-        <v>0.3423606433999065</v>
+        <v>0.2527501840920355</v>
       </c>
       <c r="Q3">
-        <v>1809.572809077072</v>
+        <v>1696.163544443472</v>
       </c>
       <c r="R3">
-        <v>16286.15528169365</v>
+        <v>15265.47189999125</v>
       </c>
       <c r="S3">
-        <v>0.04704107998983163</v>
+        <v>0.0365174341011444</v>
       </c>
       <c r="T3">
-        <v>0.05302128601655062</v>
+        <v>0.03899380246643347</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.959728</v>
+        <v>22.45812766666667</v>
       </c>
       <c r="H4">
-        <v>71.879184</v>
+        <v>67.37438299999999</v>
       </c>
       <c r="I4">
-        <v>0.1471048789571275</v>
+        <v>0.1517873496957344</v>
       </c>
       <c r="J4">
-        <v>0.1548696879699961</v>
+        <v>0.1542780378440176</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>75.97191733333334</v>
+        <v>109.55234</v>
       </c>
       <c r="N4">
-        <v>227.915752</v>
+        <v>328.65702</v>
       </c>
       <c r="O4">
-        <v>0.3216689308110315</v>
+        <v>0.348973264594696</v>
       </c>
       <c r="P4">
-        <v>0.3443838227428625</v>
+        <v>0.3666223700220274</v>
       </c>
       <c r="Q4">
-        <v>1820.266474945152</v>
+        <v>2460.340437902073</v>
       </c>
       <c r="R4">
-        <v>16382.39827450637</v>
+        <v>22143.06394111866</v>
       </c>
       <c r="S4">
-        <v>0.04731906913122542</v>
+        <v>0.05296972694749717</v>
       </c>
       <c r="T4">
-        <v>0.05333461517010156</v>
+        <v>0.05656177987672176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.959728</v>
+        <v>22.45812766666667</v>
       </c>
       <c r="H5">
-        <v>71.879184</v>
+        <v>67.37438299999999</v>
       </c>
       <c r="I5">
-        <v>0.1471048789571275</v>
+        <v>0.1517873496957344</v>
       </c>
       <c r="J5">
-        <v>0.1548696879699961</v>
+        <v>0.1542780378440176</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>46.734022</v>
+        <v>45.33717900000001</v>
       </c>
       <c r="N5">
-        <v>93.46804400000001</v>
+        <v>90.67435800000001</v>
       </c>
       <c r="O5">
-        <v>0.1978742069030739</v>
+        <v>0.144419218824026</v>
       </c>
       <c r="P5">
-        <v>0.1412314945963808</v>
+        <v>0.1011487538899543</v>
       </c>
       <c r="Q5">
-        <v>1119.734455466016</v>
+        <v>1018.188154028519</v>
       </c>
       <c r="R5">
-        <v>6718.406732796096</v>
+        <v>6109.128924171115</v>
       </c>
       <c r="S5">
-        <v>0.02910826125521429</v>
+        <v>0.02192101047042723</v>
       </c>
       <c r="T5">
-        <v>0.02187247749967769</v>
+        <v>0.01560503128050959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.959728</v>
+        <v>22.45812766666667</v>
       </c>
       <c r="H6">
-        <v>71.879184</v>
+        <v>67.37438299999999</v>
       </c>
       <c r="I6">
-        <v>0.1471048789571275</v>
+        <v>0.1517873496957344</v>
       </c>
       <c r="J6">
-        <v>0.1548696879699961</v>
+        <v>0.1542780378440176</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.46883</v>
+        <v>80.48302466666667</v>
       </c>
       <c r="N6">
-        <v>103.40649</v>
+        <v>241.449074</v>
       </c>
       <c r="O6">
-        <v>0.1459427651899269</v>
+        <v>0.2563744769156197</v>
       </c>
       <c r="P6">
-        <v>0.156248622616578</v>
+        <v>0.2693404563502215</v>
       </c>
       <c r="Q6">
-        <v>825.8637912782399</v>
+        <v>1807.498042963482</v>
       </c>
       <c r="R6">
-        <v>7432.774121504159</v>
+        <v>16267.48238667134</v>
       </c>
       <c r="S6">
-        <v>0.02146889280793269</v>
+        <v>0.03891440238065215</v>
       </c>
       <c r="T6">
-        <v>0.02419817543037111</v>
+        <v>0.04155331711772444</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>85.25773366666667</v>
+        <v>85.25773366666668</v>
       </c>
       <c r="H7">
         <v>255.773201</v>
       </c>
       <c r="I7">
-        <v>0.5234545480313473</v>
+        <v>0.57622993449876</v>
       </c>
       <c r="J7">
-        <v>0.5510846621458181</v>
+        <v>0.5856853276617543</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.480095666666666</v>
+        <v>3.029459000000001</v>
       </c>
       <c r="N7">
-        <v>10.440287</v>
+        <v>9.088377000000001</v>
       </c>
       <c r="O7">
-        <v>0.01473490062525521</v>
+        <v>0.009650183621689718</v>
       </c>
       <c r="P7">
-        <v>0.01577541664427218</v>
+        <v>0.0101382356457613</v>
       </c>
       <c r="Q7">
-        <v>296.7050694831873</v>
+        <v>258.2848085760864</v>
       </c>
       <c r="R7">
-        <v>2670.345625348687</v>
+        <v>2324.563277184778</v>
       </c>
       <c r="S7">
-        <v>0.007713050747079782</v>
+        <v>0.005560724676227273</v>
       </c>
       <c r="T7">
-        <v>0.00869359015161825</v>
+        <v>0.005937815866099784</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>85.25773366666667</v>
+        <v>85.25773366666668</v>
       </c>
       <c r="H8">
         <v>255.773201</v>
       </c>
       <c r="I8">
-        <v>0.5234545480313473</v>
+        <v>0.57622993449876</v>
       </c>
       <c r="J8">
-        <v>0.5510846621458181</v>
+        <v>0.5856853276617543</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>226.576797</v>
       </c>
       <c r="O8">
-        <v>0.3197791964707123</v>
+        <v>0.2405828560439687</v>
       </c>
       <c r="P8">
-        <v>0.3423606433999065</v>
+        <v>0.2527501840920355</v>
       </c>
       <c r="Q8">
         <v>6439.141404557467</v>
@@ -948,10 +948,10 @@
         <v>57952.2726410172</v>
       </c>
       <c r="S8">
-        <v>0.1673898747584041</v>
+        <v>0.1386310433797407</v>
       </c>
       <c r="T8">
-        <v>0.1886696995000624</v>
+        <v>0.1480320743865126</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>85.25773366666667</v>
+        <v>85.25773366666668</v>
       </c>
       <c r="H9">
         <v>255.773201</v>
       </c>
       <c r="I9">
-        <v>0.5234545480313473</v>
+        <v>0.57622993449876</v>
       </c>
       <c r="J9">
-        <v>0.5510846621458181</v>
+        <v>0.5856853276617543</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>75.97191733333334</v>
+        <v>109.55234</v>
       </c>
       <c r="N9">
-        <v>227.915752</v>
+        <v>328.65702</v>
       </c>
       <c r="O9">
-        <v>0.3216689308110315</v>
+        <v>0.348973264594696</v>
       </c>
       <c r="P9">
-        <v>0.3443838227428625</v>
+        <v>0.3666223700220274</v>
       </c>
       <c r="Q9">
-        <v>6477.193494151351</v>
+        <v>9340.184226280115</v>
       </c>
       <c r="R9">
-        <v>58294.74144736215</v>
+        <v>84061.65803652102</v>
       </c>
       <c r="S9">
-        <v>0.1683790647934152</v>
+        <v>0.2010888413992201</v>
       </c>
       <c r="T9">
-        <v>0.1897846426047357</v>
+        <v>0.2147253429144801</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>85.25773366666667</v>
+        <v>85.25773366666668</v>
       </c>
       <c r="H10">
         <v>255.773201</v>
       </c>
       <c r="I10">
-        <v>0.5234545480313473</v>
+        <v>0.57622993449876</v>
       </c>
       <c r="J10">
-        <v>0.5510846621458181</v>
+        <v>0.5856853276617543</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.734022</v>
+        <v>45.33717900000001</v>
       </c>
       <c r="N10">
-        <v>93.46804400000001</v>
+        <v>90.67435800000001</v>
       </c>
       <c r="O10">
-        <v>0.1978742069030739</v>
+        <v>0.144419218824026</v>
       </c>
       <c r="P10">
-        <v>0.1412314945963808</v>
+        <v>0.1011487538899543</v>
       </c>
       <c r="Q10">
-        <v>3984.436800848141</v>
+        <v>3865.345132379994</v>
       </c>
       <c r="R10">
-        <v>23906.62080508885</v>
+        <v>23192.07079427996</v>
       </c>
       <c r="S10">
-        <v>0.1035781535415098</v>
+        <v>0.0832186770033306</v>
       </c>
       <c r="T10">
-        <v>0.07783051048399546</v>
+        <v>0.05924134106461603</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>85.25773366666667</v>
+        <v>85.25773366666668</v>
       </c>
       <c r="H11">
         <v>255.773201</v>
       </c>
       <c r="I11">
-        <v>0.5234545480313473</v>
+        <v>0.57622993449876</v>
       </c>
       <c r="J11">
-        <v>0.5510846621458181</v>
+        <v>0.5856853276617543</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.46883</v>
+        <v>80.48302466666667</v>
       </c>
       <c r="N11">
-        <v>103.40649</v>
+        <v>241.449074</v>
       </c>
       <c r="O11">
-        <v>0.1459427651899269</v>
+        <v>0.2563744769156197</v>
       </c>
       <c r="P11">
-        <v>0.156248622616578</v>
+        <v>0.2693404563502215</v>
       </c>
       <c r="Q11">
-        <v>2938.73432794161</v>
+        <v>6861.800281718432</v>
       </c>
       <c r="R11">
-        <v>26448.60895147449</v>
+        <v>61756.20253546588</v>
       </c>
       <c r="S11">
-        <v>0.07639440419093825</v>
+        <v>0.1477306480402414</v>
       </c>
       <c r="T11">
-        <v>0.0861062194054063</v>
+        <v>0.1577487534300459</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.737404</v>
+        <v>16.09827966666667</v>
       </c>
       <c r="H12">
-        <v>41.212212</v>
+        <v>48.294839</v>
       </c>
       <c r="I12">
-        <v>0.08434315917965177</v>
+        <v>0.1088031576599699</v>
       </c>
       <c r="J12">
-        <v>0.08879514287465101</v>
+        <v>0.1105885155031808</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.480095666666666</v>
+        <v>3.029459000000001</v>
       </c>
       <c r="N12">
-        <v>10.440287</v>
+        <v>9.088377000000001</v>
       </c>
       <c r="O12">
-        <v>0.01473490062525521</v>
+        <v>0.009650183621689718</v>
       </c>
       <c r="P12">
-        <v>0.01577541664427218</v>
+        <v>0.0101382356457613</v>
       </c>
       <c r="Q12">
-        <v>47.80748013164932</v>
+        <v>48.76907822070034</v>
       </c>
       <c r="R12">
-        <v>430.2673211848439</v>
+        <v>438.9217039863031</v>
       </c>
       <c r="S12">
-        <v>0.00124278806893225</v>
+        <v>0.001049970450038365</v>
       </c>
       <c r="T12">
-        <v>0.001400780374835296</v>
+        <v>0.001121172429886173</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.737404</v>
+        <v>16.09827966666667</v>
       </c>
       <c r="H13">
-        <v>41.212212</v>
+        <v>48.294839</v>
       </c>
       <c r="I13">
-        <v>0.08434315917965177</v>
+        <v>0.1088031576599699</v>
       </c>
       <c r="J13">
-        <v>0.08879514287465101</v>
+        <v>0.1105885155031808</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>226.576797</v>
       </c>
       <c r="O13">
-        <v>0.3197791964707123</v>
+        <v>0.2405828560439687</v>
       </c>
       <c r="P13">
-        <v>0.3423606433999065</v>
+        <v>0.2527501840920355</v>
       </c>
       <c r="Q13">
-        <v>1037.525665804996</v>
+        <v>1215.83221469452</v>
       </c>
       <c r="R13">
-        <v>9337.730992244964</v>
+        <v>10942.48993225068</v>
       </c>
       <c r="S13">
-        <v>0.02697118767027042</v>
+        <v>0.02617617441643776</v>
       </c>
       <c r="T13">
-        <v>0.03039996224535214</v>
+        <v>0.02795126765189386</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.737404</v>
+        <v>16.09827966666667</v>
       </c>
       <c r="H14">
-        <v>41.212212</v>
+        <v>48.294839</v>
       </c>
       <c r="I14">
-        <v>0.08434315917965177</v>
+        <v>0.1088031576599699</v>
       </c>
       <c r="J14">
-        <v>0.08879514287465101</v>
+        <v>0.1105885155031808</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>75.97191733333334</v>
+        <v>109.55234</v>
       </c>
       <c r="N14">
-        <v>227.915752</v>
+        <v>328.65702</v>
       </c>
       <c r="O14">
-        <v>0.3216689308110315</v>
+        <v>0.348973264594696</v>
       </c>
       <c r="P14">
-        <v>0.3443838227428625</v>
+        <v>0.3666223700220274</v>
       </c>
       <c r="Q14">
-        <v>1043.656921062603</v>
+        <v>1763.604207457753</v>
       </c>
       <c r="R14">
-        <v>9392.912289563425</v>
+        <v>15872.43786711978</v>
       </c>
       <c r="S14">
-        <v>0.02713057383454322</v>
+        <v>0.03796939312681109</v>
       </c>
       <c r="T14">
-        <v>0.03057961074417096</v>
+        <v>0.04054422365099385</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.737404</v>
+        <v>16.09827966666667</v>
       </c>
       <c r="H15">
-        <v>41.212212</v>
+        <v>48.294839</v>
       </c>
       <c r="I15">
-        <v>0.08434315917965177</v>
+        <v>0.1088031576599699</v>
       </c>
       <c r="J15">
-        <v>0.08879514287465101</v>
+        <v>0.1105885155031808</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>46.734022</v>
+        <v>45.33717900000001</v>
       </c>
       <c r="N15">
-        <v>93.46804400000001</v>
+        <v>90.67435800000001</v>
       </c>
       <c r="O15">
-        <v>0.1978742069030739</v>
+        <v>0.144419218824026</v>
       </c>
       <c r="P15">
-        <v>0.1412314945963808</v>
+        <v>0.1011487538899543</v>
       </c>
       <c r="Q15">
-        <v>642.0041407588881</v>
+        <v>729.850586839727</v>
       </c>
       <c r="R15">
-        <v>3852.024844553328</v>
+        <v>4379.103521038362</v>
       </c>
       <c r="S15">
-        <v>0.01668933573037331</v>
+        <v>0.01571326703484019</v>
       </c>
       <c r="T15">
-        <v>0.01254067074108614</v>
+        <v>0.01118589053768663</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.737404</v>
+        <v>16.09827966666667</v>
       </c>
       <c r="H16">
-        <v>41.212212</v>
+        <v>48.294839</v>
       </c>
       <c r="I16">
-        <v>0.08434315917965177</v>
+        <v>0.1088031576599699</v>
       </c>
       <c r="J16">
-        <v>0.08879514287465101</v>
+        <v>0.1105885155031808</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.46883</v>
+        <v>80.48302466666667</v>
       </c>
       <c r="N16">
-        <v>103.40649</v>
+        <v>241.449074</v>
       </c>
       <c r="O16">
-        <v>0.1459427651899269</v>
+        <v>0.2563744769156197</v>
       </c>
       <c r="P16">
-        <v>0.156248622616578</v>
+        <v>0.2693404563502215</v>
       </c>
       <c r="Q16">
-        <v>473.5122431173199</v>
+        <v>1295.638239503232</v>
       </c>
       <c r="R16">
-        <v>4261.61018805588</v>
+        <v>11660.74415552909</v>
       </c>
       <c r="S16">
-        <v>0.01230927387553255</v>
+        <v>0.02789435263184247</v>
       </c>
       <c r="T16">
-        <v>0.01387411876920647</v>
+        <v>0.02978596123272025</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>24.498552</v>
+        <v>7.1659615</v>
       </c>
       <c r="H17">
-        <v>48.99710399999999</v>
+        <v>14.331923</v>
       </c>
       <c r="I17">
-        <v>0.1504130817588953</v>
+        <v>0.04843245707081293</v>
       </c>
       <c r="J17">
-        <v>0.1055683410083432</v>
+        <v>0.03281812553254174</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.480095666666666</v>
+        <v>3.029459000000001</v>
       </c>
       <c r="N17">
-        <v>10.440287</v>
+        <v>9.088377000000001</v>
       </c>
       <c r="O17">
-        <v>0.01473490062525521</v>
+        <v>0.009650183621689718</v>
       </c>
       <c r="P17">
-        <v>0.01577541664427218</v>
+        <v>0.0101382356457613</v>
       </c>
       <c r="Q17">
-        <v>85.25730465480797</v>
+        <v>21.7089865598285</v>
       </c>
       <c r="R17">
-        <v>511.5438279288478</v>
+        <v>130.253919358971</v>
       </c>
       <c r="S17">
-        <v>0.00221632181245571</v>
+        <v>0.0004673821039829493</v>
       </c>
       <c r="T17">
-        <v>0.001665384563851219</v>
+        <v>0.0003327178901010837</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>24.498552</v>
+        <v>7.1659615</v>
       </c>
       <c r="H18">
-        <v>48.99710399999999</v>
+        <v>14.331923</v>
       </c>
       <c r="I18">
-        <v>0.1504130817588953</v>
+        <v>0.04843245707081293</v>
       </c>
       <c r="J18">
-        <v>0.1055683410083432</v>
+        <v>0.03281812553254174</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>226.576797</v>
       </c>
       <c r="O18">
-        <v>0.3197791964707123</v>
+        <v>0.2405828560439687</v>
       </c>
       <c r="P18">
-        <v>0.3423606433999065</v>
+        <v>0.2527501840920355</v>
       </c>
       <c r="Q18">
-        <v>1850.267814432648</v>
+        <v>541.2135346984385</v>
       </c>
       <c r="R18">
-        <v>11101.60688659589</v>
+        <v>3247.281208190631</v>
       </c>
       <c r="S18">
-        <v>0.04809897442354311</v>
+        <v>0.01165201884732308</v>
       </c>
       <c r="T18">
-        <v>0.03614244515027711</v>
+        <v>0.008294787269905457</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>24.498552</v>
+        <v>7.1659615</v>
       </c>
       <c r="H19">
-        <v>48.99710399999999</v>
+        <v>14.331923</v>
       </c>
       <c r="I19">
-        <v>0.1504130817588953</v>
+        <v>0.04843245707081293</v>
       </c>
       <c r="J19">
-        <v>0.1055683410083432</v>
+        <v>0.03281812553254174</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>75.97191733333334</v>
+        <v>109.55234</v>
       </c>
       <c r="N19">
-        <v>227.915752</v>
+        <v>328.65702</v>
       </c>
       <c r="O19">
-        <v>0.3216689308110315</v>
+        <v>0.348973264594696</v>
       </c>
       <c r="P19">
-        <v>0.3443838227428625</v>
+        <v>0.3666223700220274</v>
       </c>
       <c r="Q19">
-        <v>1861.201967330368</v>
+        <v>785.04785067491</v>
       </c>
       <c r="R19">
-        <v>11167.21180398221</v>
+        <v>4710.28710404946</v>
       </c>
       <c r="S19">
-        <v>0.04838321518937613</v>
+        <v>0.01690163265634406</v>
       </c>
       <c r="T19">
-        <v>0.03635602883707532</v>
+        <v>0.01203185896242086</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>24.498552</v>
+        <v>7.1659615</v>
       </c>
       <c r="H20">
-        <v>48.99710399999999</v>
+        <v>14.331923</v>
       </c>
       <c r="I20">
-        <v>0.1504130817588953</v>
+        <v>0.04843245707081293</v>
       </c>
       <c r="J20">
-        <v>0.1055683410083432</v>
+        <v>0.03281812553254174</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>46.734022</v>
+        <v>45.33717900000001</v>
       </c>
       <c r="N20">
-        <v>93.46804400000001</v>
+        <v>90.67435800000001</v>
       </c>
       <c r="O20">
-        <v>0.1978742069030739</v>
+        <v>0.144419218824026</v>
       </c>
       <c r="P20">
-        <v>0.1412314945963808</v>
+        <v>0.1011487538899543</v>
       </c>
       <c r="Q20">
-        <v>1144.915868136144</v>
+        <v>324.8844792326086</v>
       </c>
       <c r="R20">
-        <v>4579.663472544576</v>
+        <v>1299.537916930434</v>
       </c>
       <c r="S20">
-        <v>0.02976286926088862</v>
+        <v>0.006994577615894979</v>
       </c>
       <c r="T20">
-        <v>0.01490957458266871</v>
+        <v>0.00331951250262069</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>24.498552</v>
+        <v>7.1659615</v>
       </c>
       <c r="H21">
-        <v>48.99710399999999</v>
+        <v>14.331923</v>
       </c>
       <c r="I21">
-        <v>0.1504130817588953</v>
+        <v>0.04843245707081293</v>
       </c>
       <c r="J21">
-        <v>0.1055683410083432</v>
+        <v>0.03281812553254174</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>34.46883</v>
+        <v>80.48302466666667</v>
       </c>
       <c r="N21">
-        <v>103.40649</v>
+        <v>241.449074</v>
       </c>
       <c r="O21">
-        <v>0.1459427651899269</v>
+        <v>0.2563744769156197</v>
       </c>
       <c r="P21">
-        <v>0.156248622616578</v>
+        <v>0.2693404563502215</v>
       </c>
       <c r="Q21">
-        <v>844.4364241341598</v>
+        <v>576.7382561648836</v>
       </c>
       <c r="R21">
-        <v>5066.618544804959</v>
+        <v>3460.429536989302</v>
       </c>
       <c r="S21">
-        <v>0.02195170107263174</v>
+        <v>0.01241684584726787</v>
       </c>
       <c r="T21">
-        <v>0.01649490787447083</v>
+        <v>0.008839248907493651</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.421724</v>
+        <v>16.97773266666666</v>
       </c>
       <c r="H22">
-        <v>46.265172</v>
+        <v>50.933198</v>
       </c>
       <c r="I22">
-        <v>0.09468433207297798</v>
+        <v>0.1147471010747227</v>
       </c>
       <c r="J22">
-        <v>0.09968216600119166</v>
+        <v>0.1166299934585055</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.480095666666666</v>
+        <v>3.029459000000001</v>
       </c>
       <c r="N22">
-        <v>10.440287</v>
+        <v>9.088377000000001</v>
       </c>
       <c r="O22">
-        <v>0.01473490062525521</v>
+        <v>0.009650183621689718</v>
       </c>
       <c r="P22">
-        <v>0.01577541664427218</v>
+        <v>0.0101382356457613</v>
       </c>
       <c r="Q22">
-        <v>53.66907486492932</v>
+        <v>51.43334502662734</v>
       </c>
       <c r="R22">
-        <v>483.0216737843639</v>
+        <v>462.9001052396461</v>
       </c>
       <c r="S22">
-        <v>0.001395164223863995</v>
+        <v>0.001107330595427664</v>
       </c>
       <c r="T22">
-        <v>0.001572527700672301</v>
+        <v>0.001182422357045927</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.421724</v>
+        <v>16.97773266666666</v>
       </c>
       <c r="H23">
-        <v>46.265172</v>
+        <v>50.933198</v>
       </c>
       <c r="I23">
-        <v>0.09468433207297798</v>
+        <v>0.1147471010747227</v>
       </c>
       <c r="J23">
-        <v>0.09968216600119166</v>
+        <v>0.1166299934585055</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>226.576797</v>
       </c>
       <c r="O23">
-        <v>0.3197791964707123</v>
+        <v>0.2405828560439687</v>
       </c>
       <c r="P23">
-        <v>0.3423606433999065</v>
+        <v>0.2527501840920355</v>
       </c>
       <c r="Q23">
-        <v>1164.734942712676</v>
+        <v>1282.253429311867</v>
       </c>
       <c r="R23">
-        <v>10482.61448441408</v>
+        <v>11540.28086380681</v>
       </c>
       <c r="S23">
-        <v>0.03027807962866299</v>
+        <v>0.02760618529932274</v>
       </c>
       <c r="T23">
-        <v>0.03412725048766426</v>
+        <v>0.02947825231729016</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.421724</v>
+        <v>16.97773266666666</v>
       </c>
       <c r="H24">
-        <v>46.265172</v>
+        <v>50.933198</v>
       </c>
       <c r="I24">
-        <v>0.09468433207297798</v>
+        <v>0.1147471010747227</v>
       </c>
       <c r="J24">
-        <v>0.09968216600119166</v>
+        <v>0.1166299934585055</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>75.97191733333334</v>
+        <v>109.55234</v>
       </c>
       <c r="N24">
-        <v>227.915752</v>
+        <v>328.65702</v>
       </c>
       <c r="O24">
-        <v>0.3216689308110315</v>
+        <v>0.348973264594696</v>
       </c>
       <c r="P24">
-        <v>0.3443838227428625</v>
+        <v>0.3666223700220274</v>
       </c>
       <c r="Q24">
-        <v>1171.617940865483</v>
+        <v>1859.950341527773</v>
       </c>
       <c r="R24">
-        <v>10544.56146778934</v>
+        <v>16739.55307374996</v>
       </c>
       <c r="S24">
-        <v>0.03045700786247149</v>
+        <v>0.04004367046482354</v>
       </c>
       <c r="T24">
-        <v>0.03432892538677899</v>
+        <v>0.04275916461741083</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.421724</v>
+        <v>16.97773266666666</v>
       </c>
       <c r="H25">
-        <v>46.265172</v>
+        <v>50.933198</v>
       </c>
       <c r="I25">
-        <v>0.09468433207297798</v>
+        <v>0.1147471010747227</v>
       </c>
       <c r="J25">
-        <v>0.09968216600119166</v>
+        <v>0.1166299934585055</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>46.734022</v>
+        <v>45.33717900000001</v>
       </c>
       <c r="N25">
-        <v>93.46804400000001</v>
+        <v>90.67435800000001</v>
       </c>
       <c r="O25">
-        <v>0.1978742069030739</v>
+        <v>0.144419218824026</v>
       </c>
       <c r="P25">
-        <v>0.1412314945963808</v>
+        <v>0.1011487538899543</v>
       </c>
       <c r="Q25">
-        <v>720.719188693928</v>
+        <v>769.722504922814</v>
       </c>
       <c r="R25">
-        <v>4324.315132163569</v>
+        <v>4618.335029536885</v>
       </c>
       <c r="S25">
-        <v>0.0187355871150878</v>
+        <v>0.01657168669953301</v>
       </c>
       <c r="T25">
-        <v>0.01407826128895284</v>
+        <v>0.01179697850452135</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.421724</v>
+        <v>16.97773266666666</v>
       </c>
       <c r="H26">
-        <v>46.265172</v>
+        <v>50.933198</v>
       </c>
       <c r="I26">
-        <v>0.09468433207297798</v>
+        <v>0.1147471010747227</v>
       </c>
       <c r="J26">
-        <v>0.09968216600119166</v>
+        <v>0.1166299934585055</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>34.46883</v>
+        <v>80.48302466666667</v>
       </c>
       <c r="N26">
-        <v>103.40649</v>
+        <v>241.449074</v>
       </c>
       <c r="O26">
-        <v>0.1459427651899269</v>
+        <v>0.2563744769156197</v>
       </c>
       <c r="P26">
-        <v>0.156248622616578</v>
+        <v>0.2693404563502215</v>
       </c>
       <c r="Q26">
-        <v>531.5687828629199</v>
+        <v>1366.419276995406</v>
       </c>
       <c r="R26">
-        <v>4784.11904576628</v>
+        <v>12297.77349295865</v>
       </c>
       <c r="S26">
-        <v>0.01381849324289169</v>
+        <v>0.02941822801561577</v>
       </c>
       <c r="T26">
-        <v>0.01557520113712328</v>
+        <v>0.03141317566223721</v>
       </c>
     </row>
   </sheetData>
